--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_20-29.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_20-29.xlsx
@@ -83,6 +83,9 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -249,6 +252,12 @@
   </si>
   <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
@@ -1230,17 +1239,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1248,7 +1257,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1256,17 +1265,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1274,7 +1283,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1282,17 +1291,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1300,7 +1309,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1308,17 +1317,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1334,17 +1343,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1360,13 +1369,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1386,17 +1395,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1404,7 +1413,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1412,17 +1421,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,13 +1447,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1456,7 +1465,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1464,17 +1473,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1490,17 +1499,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1522,7 +1531,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1542,17 +1551,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,7 +1569,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1568,13 +1577,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1586,7 +1595,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1594,17 +1603,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1626,7 +1635,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1646,17 +1655,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1672,13 +1681,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1698,17 +1707,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1724,13 +1733,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1756,11 +1765,11 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>57.600000000000001</v>
+        <v>34</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1782,11 +1791,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>80</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1802,17 +1811,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1828,17 +1837,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1854,13 +1863,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>147.5</v>
+        <v>90</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1880,17 +1889,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>164</v>
+        <v>147.5</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1906,17 +1915,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1932,13 +1941,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1950,7 +1959,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1958,13 +1967,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1976,7 +1985,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1984,17 +1993,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2010,13 +2019,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2036,13 +2045,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2068,7 +2077,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2088,17 +2097,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2114,13 +2123,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2132,7 +2141,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2140,13 +2149,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2166,17 +2175,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2184,7 +2193,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2192,13 +2201,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2210,7 +2219,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2218,17 +2227,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>64.5</v>
+        <v>57</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2244,17 +2253,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>110</v>
+        <v>64.5</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2270,13 +2279,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2296,13 +2305,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2322,13 +2331,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2348,13 +2357,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>23.039999999999999</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2374,7 +2383,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2392,7 +2401,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2400,17 +2409,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>188</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2426,17 +2435,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2452,17 +2461,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2470,7 +2479,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2478,13 +2487,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2496,7 +2505,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2504,17 +2513,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2530,17 +2539,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2562,11 +2571,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2574,7 +2583,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2582,17 +2591,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2600,7 +2609,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2608,13 +2617,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2626,7 +2635,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2634,17 +2643,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2660,13 +2669,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2692,11 +2701,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2718,7 +2727,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2738,17 +2747,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2756,7 +2765,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2770,7 +2779,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2782,7 +2791,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2790,13 +2799,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>-96</v>
+        <v>57</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2808,7 +2817,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2816,13 +2825,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2834,7 +2843,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2842,13 +2851,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>-25</v>
+        <v>-96</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2868,13 +2877,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2886,7 +2895,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2894,13 +2903,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>320</v>
+        <v>-25</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2920,13 +2929,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2938,7 +2947,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2946,17 +2955,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2972,17 +2981,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2990,7 +2999,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2998,17 +3007,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3030,11 +3039,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3050,17 +3059,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3068,7 +3077,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3076,13 +3085,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3102,17 +3111,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3120,7 +3129,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3128,13 +3137,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3146,7 +3155,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3154,51 +3163,103 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="10">
-        <v>5514.54</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="11">
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
         <v>123</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c t="s" r="F90" s="12">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
+        <v>75</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>40</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c t="s" r="N89" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" ht="25.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c t="s" r="B90" s="7">
         <v>124</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c t="s" r="I90" s="14">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c t="s" r="H90" s="8">
         <v>125</v>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9">
+        <v>65</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c t="s" r="N90" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="K91" s="10">
+        <v>5577.54</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="11">
+        <v>126</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c t="s" r="F92" s="12">
+        <v>127</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
+      <c t="s" r="I92" s="14">
+        <v>128</v>
+      </c>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="272">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3461,10 +3522,16 @@
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="I92:N92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
